--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,21 +425,53 @@
         <v>3,04</v>
       </c>
       <c r="I3" t="str">
-        <v>31-01-2025 18:30</v>
+        <v>31-01-2025 18:33</v>
       </c>
       <c r="J3" t="str">
         <v>31-01-2025 21:30</v>
       </c>
       <c r="K3" t="str">
-        <v>2,98</v>
+        <v>2,94</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/180/13520/1217874</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="str">
+        <v>Англия. Премьер-лига</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Ноттингем Форест</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Брайтон</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Завтра в 17:30</v>
+      </c>
+      <c r="F4" t="str">
+        <v>2,43</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3,55</v>
+      </c>
+      <c r="H4" t="str">
+        <v>2,85</v>
+      </c>
+      <c r="I4" t="str">
+        <v>31-01-2025 18:33</v>
+      </c>
+      <c r="J4" t="str">
+        <v>01-02-2025 17:30</v>
+      </c>
+      <c r="K4" t="str">
+        <v>22,94</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,44 +397,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="3">
       <c r="B3" t="str">
-        <v>Россия. Зимний Кубок РПЛ</v>
+        <v>Англия. Премьер-лига</v>
       </c>
       <c r="C3" t="str">
-        <v>ЦСКА М</v>
+        <v>Ноттингем Форест</v>
       </c>
       <c r="D3" t="str">
-        <v>Ростов</v>
+        <v>Брайтон</v>
       </c>
       <c r="E3" t="str">
-        <v>Сегодня в 21:30</v>
+        <v>Завтра в 17:30</v>
       </c>
       <c r="F3" t="str">
-        <v>2,24</v>
+        <v>2,46</v>
       </c>
       <c r="G3" t="str">
-        <v>3,5</v>
+        <v>3,45</v>
       </c>
       <c r="H3" t="str">
-        <v>3,04</v>
+        <v>2,85</v>
       </c>
       <c r="I3" t="str">
-        <v>31-01-2025 18:33</v>
+        <v>31-01-2025 23:19</v>
       </c>
       <c r="J3" t="str">
-        <v>31-01-2025 21:30</v>
+        <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>2,94</v>
+        <v>18,18</v>
       </c>
       <c r="L3" t="str">
-        <v>https://betboom.ru/sport/football/180/13520/1217874</v>
+        <v>https://betboom.ru/sport/football/142/128/1320328</v>
       </c>
     </row>
     <row r="4">
@@ -442,36 +442,740 @@
         <v>Англия. Премьер-лига</v>
       </c>
       <c r="C4" t="str">
-        <v>Ноттингем Форест</v>
+        <v>Ипсвич Таун</v>
       </c>
       <c r="D4" t="str">
-        <v>Брайтон</v>
+        <v>Саутгемптон</v>
       </c>
       <c r="E4" t="str">
-        <v>Завтра в 17:30</v>
+        <v>Завтра в 20:00</v>
       </c>
       <c r="F4" t="str">
+        <v>2,03</v>
+      </c>
+      <c r="G4" t="str">
+        <v>3,65</v>
+      </c>
+      <c r="H4" t="str">
+        <v>3,6</v>
+      </c>
+      <c r="I4" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J4" t="str">
+        <v>01-02-2025 20:00</v>
+      </c>
+      <c r="K4" t="str">
+        <v>20,68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
+        <v>Англия. Премьер-лига</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Эвертон</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Лестер Сити</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Завтра в 20:00</v>
+      </c>
+      <c r="F5" t="str">
+        <v>1,85</v>
+      </c>
+      <c r="G5" t="str">
+        <v>3,6</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4,4</v>
+      </c>
+      <c r="I5" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J5" t="str">
+        <v>01-02-2025 20:00</v>
+      </c>
+      <c r="K5" t="str">
+        <v>20,68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>Англия. Премьер-лига</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Ньюкасл Юн</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Фулхэм</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Завтра в 20:00</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1,72</v>
+      </c>
+      <c r="G6" t="str">
+        <v>4,1</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4,6</v>
+      </c>
+      <c r="I6" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J6" t="str">
+        <v>01-02-2025 20:00</v>
+      </c>
+      <c r="K6" t="str">
+        <v>20,68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>Англия. Премьер-лига</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Борнмут</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Ливерпуль</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Завтра в 20:00</v>
+      </c>
+      <c r="F7" t="str">
+        <v>4,3</v>
+      </c>
+      <c r="G7" t="str">
+        <v>4,3</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1,71</v>
+      </c>
+      <c r="I7" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J7" t="str">
+        <v>01-02-2025 20:00</v>
+      </c>
+      <c r="K7" t="str">
+        <v>20,68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>Англия. Премьер-лига</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Вулверхэмптон</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Астон Вилла</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Завтра в 22:30</v>
+      </c>
+      <c r="F8" t="str">
+        <v>3,25</v>
+      </c>
+      <c r="G8" t="str">
+        <v>3,6</v>
+      </c>
+      <c r="H8" t="str">
+        <v>2,19</v>
+      </c>
+      <c r="I8" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J8" t="str">
+        <v>01-02-2025 22:30</v>
+      </c>
+      <c r="K8" t="str">
+        <v>23,18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>Испания. Ла Лига</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Леганес</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Райо Вальекано</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Завтра в 01:00</v>
+      </c>
+      <c r="F9" t="str">
+        <v>3,3</v>
+      </c>
+      <c r="G9" t="str">
+        <v>3,05</v>
+      </c>
+      <c r="H9" t="str">
         <v>2,43</v>
       </c>
-      <c r="G4" t="str">
+      <c r="I9" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J9" t="str">
+        <v>01-02-2025 01:00</v>
+      </c>
+      <c r="K9" t="str">
+        <v>1,68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>Испания. Ла Лига</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Хетафе</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Севилья</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Завтра в 18:00</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2,55</v>
+      </c>
+      <c r="G10" t="str">
+        <v>2,95</v>
+      </c>
+      <c r="H10" t="str">
+        <v>3,2</v>
+      </c>
+      <c r="I10" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J10" t="str">
+        <v>01-02-2025 18:00</v>
+      </c>
+      <c r="K10" t="str">
+        <v>18,68</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>Испания. Ла Лига</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Вильярреал</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Вальядолид</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Завтра в 20:15</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1,24</v>
+      </c>
+      <c r="G11" t="str">
+        <v>7,0</v>
+      </c>
+      <c r="H11" t="str">
+        <v>12,0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J11" t="str">
+        <v>01-02-2025 20:15</v>
+      </c>
+      <c r="K11" t="str">
+        <v>20,93</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="str">
+        <v>Испания. Ла Лига</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Атлетико М</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Мальорка</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Завтра в 22:30</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1,45</v>
+      </c>
+      <c r="G12" t="str">
+        <v>4,4</v>
+      </c>
+      <c r="H12" t="str">
+        <v>7,8</v>
+      </c>
+      <c r="I12" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J12" t="str">
+        <v>01-02-2025 22:30</v>
+      </c>
+      <c r="K12" t="str">
+        <v>23,18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="str">
+        <v>Италия. Серия A</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Парма</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Лечче</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Завтра в 00:45</v>
+      </c>
+      <c r="F13" t="str">
+        <v>2,08</v>
+      </c>
+      <c r="G13" t="str">
+        <v>3,5</v>
+      </c>
+      <c r="H13" t="str">
         <v>3,55</v>
       </c>
-      <c r="H4" t="str">
-        <v>2,85</v>
-      </c>
-      <c r="I4" t="str">
-        <v>31-01-2025 18:33</v>
-      </c>
-      <c r="J4" t="str">
-        <v>01-02-2025 17:30</v>
-      </c>
-      <c r="K4" t="str">
-        <v>22,94</v>
+      <c r="I13" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J13" t="str">
+        <v>01-02-2025 00:45</v>
+      </c>
+      <c r="K13" t="str">
+        <v>1,43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="str">
+        <v>Италия. Серия A</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Удинезе</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Венеция</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Завтра в 19:00</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1,87</v>
+      </c>
+      <c r="G14" t="str">
+        <v>3,55</v>
+      </c>
+      <c r="H14" t="str">
+        <v>4,4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J14" t="str">
+        <v>01-02-2025 19:00</v>
+      </c>
+      <c r="K14" t="str">
+        <v>19,68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="str">
+        <v>Италия. Серия A</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Монца</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Верона</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Завтра в 19:00</v>
+      </c>
+      <c r="F15" t="str">
+        <v>2,32</v>
+      </c>
+      <c r="G15" t="str">
+        <v>3,1</v>
+      </c>
+      <c r="H15" t="str">
+        <v>3,4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J15" t="str">
+        <v>01-02-2025 19:00</v>
+      </c>
+      <c r="K15" t="str">
+        <v>19,68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="str">
+        <v>Италия. Серия A</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Аталанта</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Торино</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Завтра в 22:00</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1,45</v>
+      </c>
+      <c r="G16" t="str">
+        <v>4,6</v>
+      </c>
+      <c r="H16" t="str">
+        <v>7,0</v>
+      </c>
+      <c r="I16" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J16" t="str">
+        <v>01-02-2025 22:00</v>
+      </c>
+      <c r="K16" t="str">
+        <v>22,68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Вердер</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Майнц 05</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Завтра в 00:30</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2,32</v>
+      </c>
+      <c r="G17" t="str">
+        <v>3,45</v>
+      </c>
+      <c r="H17" t="str">
+        <v>3,1</v>
+      </c>
+      <c r="I17" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J17" t="str">
+        <v>01-02-2025 00:30</v>
+      </c>
+      <c r="K17" t="str">
+        <v>1,18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Ст. Паули</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Аугсбург</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Завтра в 19:30</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2,37</v>
+      </c>
+      <c r="G18" t="str">
+        <v>3,25</v>
+      </c>
+      <c r="H18" t="str">
+        <v>3,15</v>
+      </c>
+      <c r="I18" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J18" t="str">
+        <v>01-02-2025 19:30</v>
+      </c>
+      <c r="K18" t="str">
+        <v>20,18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Бохум</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Фрайбург</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Завтра в 19:30</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2,8</v>
+      </c>
+      <c r="G19" t="str">
+        <v>3,45</v>
+      </c>
+      <c r="H19" t="str">
+        <v>2,5</v>
+      </c>
+      <c r="I19" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J19" t="str">
+        <v>01-02-2025 19:30</v>
+      </c>
+      <c r="K19" t="str">
+        <v>20,18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Бавария</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Хольштайн Киль</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Завтра в 19:30</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1,06</v>
+      </c>
+      <c r="G20" t="str">
+        <v>16,0</v>
+      </c>
+      <c r="H20" t="str">
+        <v>35,0</v>
+      </c>
+      <c r="I20" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J20" t="str">
+        <v>01-02-2025 19:30</v>
+      </c>
+      <c r="K20" t="str">
+        <v>20,18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Хайденхайм</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Боруссия Д</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Завтра в 19:30</v>
+      </c>
+      <c r="F21" t="str">
+        <v>4,3</v>
+      </c>
+      <c r="G21" t="str">
+        <v>4,1</v>
+      </c>
+      <c r="H21" t="str">
+        <v>1,76</v>
+      </c>
+      <c r="I21" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J21" t="str">
+        <v>01-02-2025 19:30</v>
+      </c>
+      <c r="K21" t="str">
+        <v>20,18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Штутгарт</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Боруссия М</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Завтра в 19:30</v>
+      </c>
+      <c r="F22" t="str">
+        <v>1,61</v>
+      </c>
+      <c r="G22" t="str">
+        <v>4,5</v>
+      </c>
+      <c r="H22" t="str">
+        <v>4,9</v>
+      </c>
+      <c r="I22" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J22" t="str">
+        <v>01-02-2025 19:30</v>
+      </c>
+      <c r="K22" t="str">
+        <v>20,18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="str">
+        <v>Германия. Бундеслига</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Унион Берлин</v>
+      </c>
+      <c r="D23" t="str">
+        <v>РБ Лейпциг</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Завтра в 22:30</v>
+      </c>
+      <c r="F23" t="str">
+        <v>3,1</v>
+      </c>
+      <c r="G23" t="str">
+        <v>3,55</v>
+      </c>
+      <c r="H23" t="str">
+        <v>2,27</v>
+      </c>
+      <c r="I23" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J23" t="str">
+        <v>01-02-2025 22:30</v>
+      </c>
+      <c r="K23" t="str">
+        <v>23,18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>Франция. Лига 1</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Монпелье</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Ланс</v>
+      </c>
+      <c r="E24" t="str">
+        <v>Завтра в 00:45</v>
+      </c>
+      <c r="F24" t="str">
+        <v>4,2</v>
+      </c>
+      <c r="G24" t="str">
+        <v>3,7</v>
+      </c>
+      <c r="H24" t="str">
+        <v>1,86</v>
+      </c>
+      <c r="I24" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J24" t="str">
+        <v>01-02-2025 00:45</v>
+      </c>
+      <c r="K24" t="str">
+        <v>1,43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>Франция. Лига 1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Брест</v>
+      </c>
+      <c r="D25" t="str">
+        <v>ПСЖ</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Завтра в 21:00</v>
+      </c>
+      <c r="F25" t="str">
+        <v>6,2</v>
+      </c>
+      <c r="G25" t="str">
+        <v>5,0</v>
+      </c>
+      <c r="H25" t="str">
+        <v>1,46</v>
+      </c>
+      <c r="I25" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J25" t="str">
+        <v>01-02-2025 21:00</v>
+      </c>
+      <c r="K25" t="str">
+        <v>21,68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="str">
+        <v>Франция. Лига 1</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Монако</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Осер</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Завтра в 23:00</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1,36</v>
+      </c>
+      <c r="G26" t="str">
+        <v>5,6</v>
+      </c>
+      <c r="H26" t="str">
+        <v>7,8</v>
+      </c>
+      <c r="I26" t="str">
+        <v>31-01-2025 23:19</v>
+      </c>
+      <c r="J26" t="str">
+        <v>01-02-2025 23:00</v>
+      </c>
+      <c r="K26" t="str">
+        <v>23,68</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,10 +413,10 @@
         <v>Брайтон</v>
       </c>
       <c r="E3" t="str">
-        <v>Завтра в 17:30</v>
+        <v>Сегодня в 17:30</v>
       </c>
       <c r="F3" t="str">
-        <v>2,46</v>
+        <v>2,48</v>
       </c>
       <c r="G3" t="str">
         <v>3,45</v>
@@ -425,16 +425,16 @@
         <v>2,85</v>
       </c>
       <c r="I3" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>18,18</v>
+        <v>16,60</v>
       </c>
       <c r="L3" t="str">
-        <v>https://betboom.ru/sport/football/142/128/1320328</v>
+        <v>https://betboom.ru/sport/football/128/216/1313272</v>
       </c>
     </row>
     <row r="4">
@@ -448,7 +448,7 @@
         <v>Саутгемптон</v>
       </c>
       <c r="E4" t="str">
-        <v>Завтра в 20:00</v>
+        <v>Сегодня в 20:00</v>
       </c>
       <c r="F4" t="str">
         <v>2,03</v>
@@ -460,13 +460,16 @@
         <v>3,6</v>
       </c>
       <c r="I4" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>20,68</v>
+        <v>19,10</v>
+      </c>
+      <c r="L4" t="str">
+        <v>https://betboom.ru/sport/football/128/216/1313269</v>
       </c>
     </row>
     <row r="5">
@@ -480,25 +483,28 @@
         <v>Лестер Сити</v>
       </c>
       <c r="E5" t="str">
-        <v>Завтра в 20:00</v>
+        <v>Сегодня в 20:00</v>
       </c>
       <c r="F5" t="str">
-        <v>1,85</v>
+        <v>1,87</v>
       </c>
       <c r="G5" t="str">
-        <v>3,6</v>
+        <v>3,55</v>
       </c>
       <c r="H5" t="str">
-        <v>4,4</v>
+        <v>4,3</v>
       </c>
       <c r="I5" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>20,68</v>
+        <v>19,10</v>
+      </c>
+      <c r="L5" t="str">
+        <v>https://betboom.ru/sport/football/128/216/1313278</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +518,7 @@
         <v>Фулхэм</v>
       </c>
       <c r="E6" t="str">
-        <v>Завтра в 20:00</v>
+        <v>Сегодня в 20:00</v>
       </c>
       <c r="F6" t="str">
         <v>1,72</v>
@@ -521,16 +527,19 @@
         <v>4,1</v>
       </c>
       <c r="H6" t="str">
-        <v>4,6</v>
+        <v>4,5</v>
       </c>
       <c r="I6" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>20,68</v>
+        <v>19,10</v>
+      </c>
+      <c r="L6" t="str">
+        <v>https://betboom.ru/sport/football/128/216/1313283</v>
       </c>
     </row>
     <row r="7">
@@ -544,7 +553,7 @@
         <v>Ливерпуль</v>
       </c>
       <c r="E7" t="str">
-        <v>Завтра в 20:00</v>
+        <v>Сегодня в 20:00</v>
       </c>
       <c r="F7" t="str">
         <v>4,3</v>
@@ -556,13 +565,16 @@
         <v>1,71</v>
       </c>
       <c r="I7" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>20,68</v>
+        <v>19,10</v>
+      </c>
+      <c r="L7" t="str">
+        <v>https://betboom.ru/sport/football/128/216/1313284</v>
       </c>
     </row>
     <row r="8">
@@ -576,25 +588,28 @@
         <v>Астон Вилла</v>
       </c>
       <c r="E8" t="str">
-        <v>Завтра в 22:30</v>
+        <v>Сегодня в 22:30</v>
       </c>
       <c r="F8" t="str">
-        <v>3,25</v>
+        <v>3,2</v>
       </c>
       <c r="G8" t="str">
-        <v>3,6</v>
+        <v>3,55</v>
       </c>
       <c r="H8" t="str">
-        <v>2,19</v>
+        <v>2,22</v>
       </c>
       <c r="I8" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>23,18</v>
+        <v>21,60</v>
+      </c>
+      <c r="L8" t="str">
+        <v>https://betboom.ru/sport/football/128/216/1313270</v>
       </c>
     </row>
     <row r="9">
@@ -602,31 +617,31 @@
         <v>Испания. Ла Лига</v>
       </c>
       <c r="C9" t="str">
-        <v>Леганес</v>
+        <v>Хетафе</v>
       </c>
       <c r="D9" t="str">
-        <v>Райо Вальекано</v>
+        <v>Севилья</v>
       </c>
       <c r="E9" t="str">
-        <v>Завтра в 01:00</v>
+        <v>Сегодня в 18:00</v>
       </c>
       <c r="F9" t="str">
-        <v>3,3</v>
+        <v>2,55</v>
       </c>
       <c r="G9" t="str">
-        <v>3,05</v>
+        <v>2,95</v>
       </c>
       <c r="H9" t="str">
-        <v>2,43</v>
+        <v>3,2</v>
       </c>
       <c r="I9" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J9" t="str">
-        <v>01-02-2025 01:00</v>
+        <v>01-02-2025 18:00</v>
       </c>
       <c r="K9" t="str">
-        <v>1,68</v>
+        <v>17,10</v>
       </c>
     </row>
     <row r="10">
@@ -634,31 +649,31 @@
         <v>Испания. Ла Лига</v>
       </c>
       <c r="C10" t="str">
-        <v>Хетафе</v>
+        <v>Вильярреал</v>
       </c>
       <c r="D10" t="str">
-        <v>Севилья</v>
+        <v>Вальядолид</v>
       </c>
       <c r="E10" t="str">
-        <v>Завтра в 18:00</v>
+        <v>Сегодня в 20:15</v>
       </c>
       <c r="F10" t="str">
-        <v>2,55</v>
+        <v>1,24</v>
       </c>
       <c r="G10" t="str">
-        <v>2,95</v>
+        <v>7,0</v>
       </c>
       <c r="H10" t="str">
-        <v>3,2</v>
+        <v>12,0</v>
       </c>
       <c r="I10" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J10" t="str">
-        <v>01-02-2025 18:00</v>
+        <v>01-02-2025 20:15</v>
       </c>
       <c r="K10" t="str">
-        <v>18,68</v>
+        <v>19,35</v>
       </c>
     </row>
     <row r="11">
@@ -666,63 +681,63 @@
         <v>Испания. Ла Лига</v>
       </c>
       <c r="C11" t="str">
-        <v>Вильярреал</v>
+        <v>Атлетико М</v>
       </c>
       <c r="D11" t="str">
-        <v>Вальядолид</v>
+        <v>Мальорка</v>
       </c>
       <c r="E11" t="str">
-        <v>Завтра в 20:15</v>
+        <v>Сегодня в 22:30</v>
       </c>
       <c r="F11" t="str">
-        <v>1,24</v>
+        <v>1,45</v>
       </c>
       <c r="G11" t="str">
-        <v>7,0</v>
+        <v>4,4</v>
       </c>
       <c r="H11" t="str">
-        <v>12,0</v>
+        <v>7,8</v>
       </c>
       <c r="I11" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J11" t="str">
-        <v>01-02-2025 20:15</v>
+        <v>01-02-2025 22:30</v>
       </c>
       <c r="K11" t="str">
-        <v>20,93</v>
+        <v>21,60</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>Испания. Ла Лига</v>
+        <v>Италия. Серия A</v>
       </c>
       <c r="C12" t="str">
-        <v>Атлетико М</v>
+        <v>Удинезе</v>
       </c>
       <c r="D12" t="str">
-        <v>Мальорка</v>
+        <v>Венеция</v>
       </c>
       <c r="E12" t="str">
-        <v>Завтра в 22:30</v>
+        <v>Сегодня в 19:00</v>
       </c>
       <c r="F12" t="str">
-        <v>1,45</v>
+        <v>1,87</v>
       </c>
       <c r="G12" t="str">
+        <v>3,55</v>
+      </c>
+      <c r="H12" t="str">
         <v>4,4</v>
       </c>
-      <c r="H12" t="str">
-        <v>7,8</v>
-      </c>
       <c r="I12" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J12" t="str">
-        <v>01-02-2025 22:30</v>
+        <v>01-02-2025 19:00</v>
       </c>
       <c r="K12" t="str">
-        <v>23,18</v>
+        <v>18,10</v>
       </c>
     </row>
     <row r="13">
@@ -730,31 +745,31 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C13" t="str">
-        <v>Парма</v>
+        <v>Монца</v>
       </c>
       <c r="D13" t="str">
-        <v>Лечче</v>
+        <v>Верона</v>
       </c>
       <c r="E13" t="str">
-        <v>Завтра в 00:45</v>
+        <v>Сегодня в 19:00</v>
       </c>
       <c r="F13" t="str">
-        <v>2,08</v>
+        <v>2,41</v>
       </c>
       <c r="G13" t="str">
-        <v>3,5</v>
+        <v>3,1</v>
       </c>
       <c r="H13" t="str">
-        <v>3,55</v>
+        <v>3,25</v>
       </c>
       <c r="I13" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J13" t="str">
-        <v>01-02-2025 00:45</v>
+        <v>01-02-2025 19:00</v>
       </c>
       <c r="K13" t="str">
-        <v>1,43</v>
+        <v>18,10</v>
       </c>
     </row>
     <row r="14">
@@ -762,31 +777,31 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C14" t="str">
-        <v>Удинезе</v>
+        <v>Аталанта</v>
       </c>
       <c r="D14" t="str">
-        <v>Венеция</v>
+        <v>Торино</v>
       </c>
       <c r="E14" t="str">
-        <v>Завтра в 19:00</v>
+        <v>Сегодня в 22:00</v>
       </c>
       <c r="F14" t="str">
-        <v>1,87</v>
+        <v>1,45</v>
       </c>
       <c r="G14" t="str">
-        <v>3,55</v>
+        <v>4,6</v>
       </c>
       <c r="H14" t="str">
-        <v>4,4</v>
+        <v>7,0</v>
       </c>
       <c r="I14" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J14" t="str">
-        <v>01-02-2025 19:00</v>
+        <v>01-02-2025 22:00</v>
       </c>
       <c r="K14" t="str">
-        <v>19,68</v>
+        <v>21,10</v>
       </c>
     </row>
     <row r="15">
@@ -794,63 +809,63 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C15" t="str">
-        <v>Монца</v>
+        <v>Болонья</v>
       </c>
       <c r="D15" t="str">
-        <v>Верона</v>
+        <v>Комо</v>
       </c>
       <c r="E15" t="str">
-        <v>Завтра в 19:00</v>
+        <v>Завтра в 00:45</v>
       </c>
       <c r="F15" t="str">
-        <v>2,32</v>
+        <v>1,91</v>
       </c>
       <c r="G15" t="str">
-        <v>3,1</v>
+        <v>3,55</v>
       </c>
       <c r="H15" t="str">
-        <v>3,4</v>
+        <v>4,1</v>
       </c>
       <c r="I15" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J15" t="str">
-        <v>01-02-2025 19:00</v>
+        <v>02-02-2025 00:45</v>
       </c>
       <c r="K15" t="str">
-        <v>19,68</v>
+        <v>23,85</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>Италия. Серия A</v>
+        <v>Германия. Бундеслига</v>
       </c>
       <c r="C16" t="str">
-        <v>Аталанта</v>
+        <v>Ст. Паули</v>
       </c>
       <c r="D16" t="str">
-        <v>Торино</v>
+        <v>Аугсбург</v>
       </c>
       <c r="E16" t="str">
-        <v>Завтра в 22:00</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F16" t="str">
-        <v>1,45</v>
+        <v>2,37</v>
       </c>
       <c r="G16" t="str">
-        <v>4,6</v>
+        <v>3,25</v>
       </c>
       <c r="H16" t="str">
-        <v>7,0</v>
+        <v>3,15</v>
       </c>
       <c r="I16" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J16" t="str">
-        <v>01-02-2025 22:00</v>
+        <v>01-02-2025 19:30</v>
       </c>
       <c r="K16" t="str">
-        <v>22,68</v>
+        <v>18,60</v>
       </c>
     </row>
     <row r="17">
@@ -858,31 +873,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C17" t="str">
-        <v>Вердер</v>
+        <v>Бохум</v>
       </c>
       <c r="D17" t="str">
-        <v>Майнц 05</v>
+        <v>Фрайбург</v>
       </c>
       <c r="E17" t="str">
-        <v>Завтра в 00:30</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F17" t="str">
-        <v>2,32</v>
+        <v>2,8</v>
       </c>
       <c r="G17" t="str">
         <v>3,45</v>
       </c>
       <c r="H17" t="str">
-        <v>3,1</v>
+        <v>2,5</v>
       </c>
       <c r="I17" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J17" t="str">
-        <v>01-02-2025 00:30</v>
+        <v>01-02-2025 19:30</v>
       </c>
       <c r="K17" t="str">
-        <v>1,18</v>
+        <v>18,60</v>
       </c>
     </row>
     <row r="18">
@@ -890,31 +905,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C18" t="str">
-        <v>Ст. Паули</v>
+        <v>Бавария</v>
       </c>
       <c r="D18" t="str">
-        <v>Аугсбург</v>
+        <v>Хольштайн Киль</v>
       </c>
       <c r="E18" t="str">
-        <v>Завтра в 19:30</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F18" t="str">
-        <v>2,37</v>
+        <v>1,06</v>
       </c>
       <c r="G18" t="str">
-        <v>3,25</v>
+        <v>16,0</v>
       </c>
       <c r="H18" t="str">
-        <v>3,15</v>
+        <v>35,0</v>
       </c>
       <c r="I18" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J18" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K18" t="str">
-        <v>20,18</v>
+        <v>18,60</v>
       </c>
     </row>
     <row r="19">
@@ -922,31 +937,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C19" t="str">
-        <v>Бохум</v>
+        <v>Хайденхайм</v>
       </c>
       <c r="D19" t="str">
-        <v>Фрайбург</v>
+        <v>Боруссия Д</v>
       </c>
       <c r="E19" t="str">
-        <v>Завтра в 19:30</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F19" t="str">
-        <v>2,8</v>
+        <v>4,4</v>
       </c>
       <c r="G19" t="str">
-        <v>3,45</v>
+        <v>4,1</v>
       </c>
       <c r="H19" t="str">
-        <v>2,5</v>
+        <v>1,75</v>
       </c>
       <c r="I19" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J19" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K19" t="str">
-        <v>20,18</v>
+        <v>18,60</v>
       </c>
     </row>
     <row r="20">
@@ -954,31 +969,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C20" t="str">
-        <v>Бавария</v>
+        <v>Штутгарт</v>
       </c>
       <c r="D20" t="str">
-        <v>Хольштайн Киль</v>
+        <v>Боруссия М</v>
       </c>
       <c r="E20" t="str">
-        <v>Завтра в 19:30</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F20" t="str">
-        <v>1,06</v>
+        <v>1,62</v>
       </c>
       <c r="G20" t="str">
-        <v>16,0</v>
+        <v>4,5</v>
       </c>
       <c r="H20" t="str">
-        <v>35,0</v>
+        <v>4,8</v>
       </c>
       <c r="I20" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J20" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K20" t="str">
-        <v>20,18</v>
+        <v>18,60</v>
       </c>
     </row>
     <row r="21">
@@ -986,196 +1001,100 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C21" t="str">
-        <v>Хайденхайм</v>
+        <v>Унион Берлин</v>
       </c>
       <c r="D21" t="str">
-        <v>Боруссия Д</v>
+        <v>РБ Лейпциг</v>
       </c>
       <c r="E21" t="str">
-        <v>Завтра в 19:30</v>
+        <v>Сегодня в 22:30</v>
       </c>
       <c r="F21" t="str">
-        <v>4,3</v>
+        <v>3,1</v>
       </c>
       <c r="G21" t="str">
-        <v>4,1</v>
+        <v>3,55</v>
       </c>
       <c r="H21" t="str">
-        <v>1,76</v>
+        <v>2,27</v>
       </c>
       <c r="I21" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J21" t="str">
-        <v>01-02-2025 19:30</v>
+        <v>01-02-2025 22:30</v>
       </c>
       <c r="K21" t="str">
-        <v>20,18</v>
+        <v>21,60</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>Германия. Бундеслига</v>
+        <v>Франция. Лига 1</v>
       </c>
       <c r="C22" t="str">
-        <v>Штутгарт</v>
+        <v>Брест</v>
       </c>
       <c r="D22" t="str">
-        <v>Боруссия М</v>
+        <v>ПСЖ</v>
       </c>
       <c r="E22" t="str">
-        <v>Завтра в 19:30</v>
+        <v>Сегодня в 21:00</v>
       </c>
       <c r="F22" t="str">
-        <v>1,61</v>
+        <v>6,0</v>
       </c>
       <c r="G22" t="str">
-        <v>4,5</v>
+        <v>4,9</v>
       </c>
       <c r="H22" t="str">
-        <v>4,9</v>
+        <v>1,48</v>
       </c>
       <c r="I22" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J22" t="str">
-        <v>01-02-2025 19:30</v>
+        <v>01-02-2025 21:00</v>
       </c>
       <c r="K22" t="str">
-        <v>20,18</v>
+        <v>20,10</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="str">
-        <v>Германия. Бундеслига</v>
+        <v>Франция. Лига 1</v>
       </c>
       <c r="C23" t="str">
-        <v>Унион Берлин</v>
+        <v>Монако</v>
       </c>
       <c r="D23" t="str">
-        <v>РБ Лейпциг</v>
+        <v>Осер</v>
       </c>
       <c r="E23" t="str">
-        <v>Завтра в 22:30</v>
+        <v>Сегодня в 23:00</v>
       </c>
       <c r="F23" t="str">
-        <v>3,1</v>
+        <v>1,36</v>
       </c>
       <c r="G23" t="str">
-        <v>3,55</v>
+        <v>5,6</v>
       </c>
       <c r="H23" t="str">
-        <v>2,27</v>
+        <v>7,8</v>
       </c>
       <c r="I23" t="str">
-        <v>31-01-2025 23:19</v>
+        <v>01-02-2025 00:54</v>
       </c>
       <c r="J23" t="str">
-        <v>01-02-2025 22:30</v>
+        <v>01-02-2025 23:00</v>
       </c>
       <c r="K23" t="str">
-        <v>23,18</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="str">
-        <v>Франция. Лига 1</v>
-      </c>
-      <c r="C24" t="str">
-        <v>Монпелье</v>
-      </c>
-      <c r="D24" t="str">
-        <v>Ланс</v>
-      </c>
-      <c r="E24" t="str">
-        <v>Завтра в 00:45</v>
-      </c>
-      <c r="F24" t="str">
-        <v>4,2</v>
-      </c>
-      <c r="G24" t="str">
-        <v>3,7</v>
-      </c>
-      <c r="H24" t="str">
-        <v>1,86</v>
-      </c>
-      <c r="I24" t="str">
-        <v>31-01-2025 23:19</v>
-      </c>
-      <c r="J24" t="str">
-        <v>01-02-2025 00:45</v>
-      </c>
-      <c r="K24" t="str">
-        <v>1,43</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="str">
-        <v>Франция. Лига 1</v>
-      </c>
-      <c r="C25" t="str">
-        <v>Брест</v>
-      </c>
-      <c r="D25" t="str">
-        <v>ПСЖ</v>
-      </c>
-      <c r="E25" t="str">
-        <v>Завтра в 21:00</v>
-      </c>
-      <c r="F25" t="str">
-        <v>6,2</v>
-      </c>
-      <c r="G25" t="str">
-        <v>5,0</v>
-      </c>
-      <c r="H25" t="str">
-        <v>1,46</v>
-      </c>
-      <c r="I25" t="str">
-        <v>31-01-2025 23:19</v>
-      </c>
-      <c r="J25" t="str">
-        <v>01-02-2025 21:00</v>
-      </c>
-      <c r="K25" t="str">
-        <v>21,68</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="str">
-        <v>Франция. Лига 1</v>
-      </c>
-      <c r="C26" t="str">
-        <v>Монако</v>
-      </c>
-      <c r="D26" t="str">
-        <v>Осер</v>
-      </c>
-      <c r="E26" t="str">
-        <v>Завтра в 23:00</v>
-      </c>
-      <c r="F26" t="str">
-        <v>1,36</v>
-      </c>
-      <c r="G26" t="str">
-        <v>5,6</v>
-      </c>
-      <c r="H26" t="str">
-        <v>7,8</v>
-      </c>
-      <c r="I26" t="str">
-        <v>31-01-2025 23:19</v>
-      </c>
-      <c r="J26" t="str">
-        <v>01-02-2025 23:00</v>
-      </c>
-      <c r="K26" t="str">
-        <v>23,68</v>
+        <v>22,10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,22 +416,22 @@
         <v>Сегодня в 17:30</v>
       </c>
       <c r="F3" t="str">
-        <v>2,48</v>
+        <v>2,55</v>
       </c>
       <c r="G3" t="str">
         <v>3,45</v>
       </c>
       <c r="H3" t="str">
-        <v>2,85</v>
+        <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>16,60</v>
+        <v>16,45</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -460,13 +460,13 @@
         <v>3,6</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>19,10</v>
+        <v>18,95</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -495,13 +495,13 @@
         <v>4,3</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>19,10</v>
+        <v>18,95</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -530,13 +530,13 @@
         <v>4,5</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>19,10</v>
+        <v>18,95</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -565,13 +565,13 @@
         <v>1,71</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>19,10</v>
+        <v>18,95</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -600,13 +600,13 @@
         <v>2,22</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>21,60</v>
+        <v>21,45</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
@@ -635,13 +635,13 @@
         <v>3,2</v>
       </c>
       <c r="I9" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J9" t="str">
         <v>01-02-2025 18:00</v>
       </c>
       <c r="K9" t="str">
-        <v>17,10</v>
+        <v>16,95</v>
       </c>
     </row>
     <row r="10">
@@ -667,13 +667,13 @@
         <v>12,0</v>
       </c>
       <c r="I10" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J10" t="str">
         <v>01-02-2025 20:15</v>
       </c>
       <c r="K10" t="str">
-        <v>19,35</v>
+        <v>19,20</v>
       </c>
     </row>
     <row r="11">
@@ -699,45 +699,45 @@
         <v>7,8</v>
       </c>
       <c r="I11" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J11" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K11" t="str">
-        <v>21,60</v>
+        <v>21,45</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="str">
-        <v>Италия. Серия A</v>
+        <v>Испания. Ла Лига</v>
       </c>
       <c r="C12" t="str">
-        <v>Удинезе</v>
+        <v>Эспаньол</v>
       </c>
       <c r="D12" t="str">
-        <v>Венеция</v>
+        <v>Реал М</v>
       </c>
       <c r="E12" t="str">
-        <v>Сегодня в 19:00</v>
+        <v>Завтра в 01:00</v>
       </c>
       <c r="F12" t="str">
-        <v>1,87</v>
+        <v>8,8</v>
       </c>
       <c r="G12" t="str">
-        <v>3,55</v>
+        <v>5,8</v>
       </c>
       <c r="H12" t="str">
-        <v>4,4</v>
+        <v>1,33</v>
       </c>
       <c r="I12" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J12" t="str">
-        <v>01-02-2025 19:00</v>
+        <v>02-02-2025 01:00</v>
       </c>
       <c r="K12" t="str">
-        <v>18,10</v>
+        <v>23,95</v>
       </c>
     </row>
     <row r="13">
@@ -745,31 +745,31 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C13" t="str">
-        <v>Монца</v>
+        <v>Удинезе</v>
       </c>
       <c r="D13" t="str">
-        <v>Верона</v>
+        <v>Венеция</v>
       </c>
       <c r="E13" t="str">
         <v>Сегодня в 19:00</v>
       </c>
       <c r="F13" t="str">
-        <v>2,41</v>
+        <v>1,87</v>
       </c>
       <c r="G13" t="str">
-        <v>3,1</v>
+        <v>3,55</v>
       </c>
       <c r="H13" t="str">
-        <v>3,25</v>
+        <v>4,4</v>
       </c>
       <c r="I13" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J13" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K13" t="str">
-        <v>18,10</v>
+        <v>17,95</v>
       </c>
     </row>
     <row r="14">
@@ -777,31 +777,31 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C14" t="str">
-        <v>Аталанта</v>
+        <v>Монца</v>
       </c>
       <c r="D14" t="str">
-        <v>Торино</v>
+        <v>Верона</v>
       </c>
       <c r="E14" t="str">
-        <v>Сегодня в 22:00</v>
+        <v>Сегодня в 19:00</v>
       </c>
       <c r="F14" t="str">
-        <v>1,45</v>
+        <v>2,41</v>
       </c>
       <c r="G14" t="str">
-        <v>4,6</v>
+        <v>3,1</v>
       </c>
       <c r="H14" t="str">
-        <v>7,0</v>
+        <v>3,25</v>
       </c>
       <c r="I14" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J14" t="str">
-        <v>01-02-2025 22:00</v>
+        <v>01-02-2025 19:00</v>
       </c>
       <c r="K14" t="str">
-        <v>21,10</v>
+        <v>17,95</v>
       </c>
     </row>
     <row r="15">
@@ -809,63 +809,63 @@
         <v>Италия. Серия A</v>
       </c>
       <c r="C15" t="str">
-        <v>Болонья</v>
+        <v>Аталанта</v>
       </c>
       <c r="D15" t="str">
-        <v>Комо</v>
+        <v>Торино</v>
       </c>
       <c r="E15" t="str">
-        <v>Завтра в 00:45</v>
+        <v>Сегодня в 22:00</v>
       </c>
       <c r="F15" t="str">
-        <v>1,91</v>
+        <v>1,44</v>
       </c>
       <c r="G15" t="str">
-        <v>3,55</v>
+        <v>4,7</v>
       </c>
       <c r="H15" t="str">
-        <v>4,1</v>
+        <v>7,2</v>
       </c>
       <c r="I15" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J15" t="str">
-        <v>02-02-2025 00:45</v>
+        <v>01-02-2025 22:00</v>
       </c>
       <c r="K15" t="str">
-        <v>23,85</v>
+        <v>20,95</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="str">
-        <v>Германия. Бундеслига</v>
+        <v>Италия. Серия A</v>
       </c>
       <c r="C16" t="str">
-        <v>Ст. Паули</v>
+        <v>Болонья</v>
       </c>
       <c r="D16" t="str">
-        <v>Аугсбург</v>
+        <v>Комо</v>
       </c>
       <c r="E16" t="str">
-        <v>Сегодня в 19:30</v>
+        <v>Завтра в 00:45</v>
       </c>
       <c r="F16" t="str">
-        <v>2,37</v>
+        <v>1,92</v>
       </c>
       <c r="G16" t="str">
-        <v>3,25</v>
+        <v>3,55</v>
       </c>
       <c r="H16" t="str">
-        <v>3,15</v>
+        <v>4,1</v>
       </c>
       <c r="I16" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J16" t="str">
-        <v>01-02-2025 19:30</v>
+        <v>02-02-2025 00:45</v>
       </c>
       <c r="K16" t="str">
-        <v>18,60</v>
+        <v>23,70</v>
       </c>
     </row>
     <row r="17">
@@ -873,31 +873,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C17" t="str">
-        <v>Бохум</v>
+        <v>Ст. Паули</v>
       </c>
       <c r="D17" t="str">
-        <v>Фрайбург</v>
+        <v>Аугсбург</v>
       </c>
       <c r="E17" t="str">
         <v>Сегодня в 19:30</v>
       </c>
       <c r="F17" t="str">
-        <v>2,8</v>
+        <v>2,37</v>
       </c>
       <c r="G17" t="str">
-        <v>3,45</v>
+        <v>3,25</v>
       </c>
       <c r="H17" t="str">
-        <v>2,5</v>
+        <v>3,15</v>
       </c>
       <c r="I17" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J17" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K17" t="str">
-        <v>18,60</v>
+        <v>18,45</v>
       </c>
     </row>
     <row r="18">
@@ -905,31 +905,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C18" t="str">
-        <v>Бавария</v>
+        <v>Бохум</v>
       </c>
       <c r="D18" t="str">
-        <v>Хольштайн Киль</v>
+        <v>Фрайбург</v>
       </c>
       <c r="E18" t="str">
         <v>Сегодня в 19:30</v>
       </c>
       <c r="F18" t="str">
-        <v>1,06</v>
+        <v>2,8</v>
       </c>
       <c r="G18" t="str">
-        <v>16,0</v>
+        <v>3,45</v>
       </c>
       <c r="H18" t="str">
-        <v>35,0</v>
+        <v>2,5</v>
       </c>
       <c r="I18" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J18" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K18" t="str">
-        <v>18,60</v>
+        <v>18,45</v>
       </c>
     </row>
     <row r="19">
@@ -937,31 +937,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C19" t="str">
-        <v>Хайденхайм</v>
+        <v>Бавария</v>
       </c>
       <c r="D19" t="str">
-        <v>Боруссия Д</v>
+        <v>Хольштайн Киль</v>
       </c>
       <c r="E19" t="str">
         <v>Сегодня в 19:30</v>
       </c>
       <c r="F19" t="str">
-        <v>4,4</v>
+        <v>1,05</v>
       </c>
       <c r="G19" t="str">
-        <v>4,1</v>
+        <v>17,0</v>
       </c>
       <c r="H19" t="str">
-        <v>1,75</v>
+        <v>35,0</v>
       </c>
       <c r="I19" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J19" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K19" t="str">
-        <v>18,60</v>
+        <v>18,45</v>
       </c>
     </row>
     <row r="20">
@@ -969,31 +969,31 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C20" t="str">
-        <v>Штутгарт</v>
+        <v>Хайденхайм</v>
       </c>
       <c r="D20" t="str">
-        <v>Боруссия М</v>
+        <v>Боруссия Д</v>
       </c>
       <c r="E20" t="str">
         <v>Сегодня в 19:30</v>
       </c>
       <c r="F20" t="str">
-        <v>1,62</v>
+        <v>4,4</v>
       </c>
       <c r="G20" t="str">
-        <v>4,5</v>
+        <v>4,1</v>
       </c>
       <c r="H20" t="str">
-        <v>4,8</v>
+        <v>1,75</v>
       </c>
       <c r="I20" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J20" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K20" t="str">
-        <v>18,60</v>
+        <v>18,45</v>
       </c>
     </row>
     <row r="21">
@@ -1001,63 +1001,63 @@
         <v>Германия. Бундеслига</v>
       </c>
       <c r="C21" t="str">
-        <v>Унион Берлин</v>
+        <v>Штутгарт</v>
       </c>
       <c r="D21" t="str">
-        <v>РБ Лейпциг</v>
+        <v>Боруссия М</v>
       </c>
       <c r="E21" t="str">
-        <v>Сегодня в 22:30</v>
+        <v>Сегодня в 19:30</v>
       </c>
       <c r="F21" t="str">
-        <v>3,1</v>
+        <v>1,62</v>
       </c>
       <c r="G21" t="str">
-        <v>3,55</v>
+        <v>4,5</v>
       </c>
       <c r="H21" t="str">
-        <v>2,27</v>
+        <v>4,8</v>
       </c>
       <c r="I21" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J21" t="str">
-        <v>01-02-2025 22:30</v>
+        <v>01-02-2025 19:30</v>
       </c>
       <c r="K21" t="str">
-        <v>21,60</v>
+        <v>18,45</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="str">
-        <v>Франция. Лига 1</v>
+        <v>Германия. Бундеслига</v>
       </c>
       <c r="C22" t="str">
-        <v>Брест</v>
+        <v>Унион Берлин</v>
       </c>
       <c r="D22" t="str">
-        <v>ПСЖ</v>
+        <v>РБ Лейпциг</v>
       </c>
       <c r="E22" t="str">
-        <v>Сегодня в 21:00</v>
+        <v>Сегодня в 22:30</v>
       </c>
       <c r="F22" t="str">
-        <v>6,0</v>
+        <v>3,1</v>
       </c>
       <c r="G22" t="str">
-        <v>4,9</v>
+        <v>3,55</v>
       </c>
       <c r="H22" t="str">
-        <v>1,48</v>
+        <v>2,27</v>
       </c>
       <c r="I22" t="str">
-        <v>01-02-2025 00:54</v>
+        <v>01-02-2025 01:03</v>
       </c>
       <c r="J22" t="str">
-        <v>01-02-2025 21:00</v>
+        <v>01-02-2025 22:30</v>
       </c>
       <c r="K22" t="str">
-        <v>20,10</v>
+        <v>21,45</v>
       </c>
     </row>
     <row r="23">
@@ -1065,36 +1065,68 @@
         <v>Франция. Лига 1</v>
       </c>
       <c r="C23" t="str">
+        <v>Брест</v>
+      </c>
+      <c r="D23" t="str">
+        <v>ПСЖ</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Сегодня в 21:00</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6,0</v>
+      </c>
+      <c r="G23" t="str">
+        <v>4,9</v>
+      </c>
+      <c r="H23" t="str">
+        <v>1,48</v>
+      </c>
+      <c r="I23" t="str">
+        <v>01-02-2025 01:03</v>
+      </c>
+      <c r="J23" t="str">
+        <v>01-02-2025 21:00</v>
+      </c>
+      <c r="K23" t="str">
+        <v>19,95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="str">
+        <v>Франция. Лига 1</v>
+      </c>
+      <c r="C24" t="str">
         <v>Монако</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D24" t="str">
         <v>Осер</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E24" t="str">
         <v>Сегодня в 23:00</v>
       </c>
-      <c r="F23" t="str">
+      <c r="F24" t="str">
         <v>1,36</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G24" t="str">
         <v>5,6</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H24" t="str">
         <v>7,8</v>
       </c>
-      <c r="I23" t="str">
-        <v>01-02-2025 00:54</v>
-      </c>
-      <c r="J23" t="str">
+      <c r="I24" t="str">
+        <v>01-02-2025 01:03</v>
+      </c>
+      <c r="J24" t="str">
         <v>01-02-2025 23:00</v>
       </c>
-      <c r="K23" t="str">
-        <v>22,10</v>
+      <c r="K24" t="str">
+        <v>21,95</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -419,19 +419,19 @@
         <v>2,55</v>
       </c>
       <c r="G3" t="str">
-        <v>3,45</v>
+        <v>3,4</v>
       </c>
       <c r="H3" t="str">
-        <v>2,8</v>
+        <v>2,75</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>16,45</v>
+        <v>15,91</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -451,22 +451,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F4" t="str">
-        <v>2,03</v>
+        <v>2,04</v>
       </c>
       <c r="G4" t="str">
-        <v>3,65</v>
+        <v>3,6</v>
       </c>
       <c r="H4" t="str">
         <v>3,6</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>18,95</v>
+        <v>18,41</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -495,13 +495,13 @@
         <v>4,3</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>18,95</v>
+        <v>18,41</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -521,7 +521,7 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F6" t="str">
-        <v>1,72</v>
+        <v>1,73</v>
       </c>
       <c r="G6" t="str">
         <v>4,1</v>
@@ -530,13 +530,13 @@
         <v>4,5</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>18,95</v>
+        <v>18,41</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -565,13 +565,13 @@
         <v>1,71</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>18,95</v>
+        <v>18,41</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -600,13 +600,13 @@
         <v>2,22</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>21,45</v>
+        <v>20,91</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
@@ -635,13 +635,13 @@
         <v>3,2</v>
       </c>
       <c r="I9" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J9" t="str">
         <v>01-02-2025 18:00</v>
       </c>
       <c r="K9" t="str">
-        <v>16,95</v>
+        <v>16,41</v>
       </c>
     </row>
     <row r="10">
@@ -658,7 +658,7 @@
         <v>Сегодня в 20:15</v>
       </c>
       <c r="F10" t="str">
-        <v>1,24</v>
+        <v>1,23</v>
       </c>
       <c r="G10" t="str">
         <v>7,0</v>
@@ -667,13 +667,13 @@
         <v>12,0</v>
       </c>
       <c r="I10" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J10" t="str">
         <v>01-02-2025 20:15</v>
       </c>
       <c r="K10" t="str">
-        <v>19,20</v>
+        <v>18,66</v>
       </c>
     </row>
     <row r="11">
@@ -699,13 +699,13 @@
         <v>7,8</v>
       </c>
       <c r="I11" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J11" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K11" t="str">
-        <v>21,45</v>
+        <v>20,91</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="F12" t="str">
-        <v>8,8</v>
+        <v>8,4</v>
       </c>
       <c r="G12" t="str">
-        <v>5,8</v>
+        <v>5,6</v>
       </c>
       <c r="H12" t="str">
-        <v>1,33</v>
+        <v>1,35</v>
       </c>
       <c r="I12" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J12" t="str">
         <v>02-02-2025 01:00</v>
       </c>
       <c r="K12" t="str">
-        <v>23,95</v>
+        <v>23,41</v>
       </c>
     </row>
     <row r="13">
@@ -763,13 +763,13 @@
         <v>4,4</v>
       </c>
       <c r="I13" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J13" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K13" t="str">
-        <v>17,95</v>
+        <v>17,41</v>
       </c>
     </row>
     <row r="14">
@@ -786,22 +786,22 @@
         <v>Сегодня в 19:00</v>
       </c>
       <c r="F14" t="str">
-        <v>2,41</v>
+        <v>2,46</v>
       </c>
       <c r="G14" t="str">
-        <v>3,1</v>
+        <v>3,05</v>
       </c>
       <c r="H14" t="str">
-        <v>3,25</v>
+        <v>3,2</v>
       </c>
       <c r="I14" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J14" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K14" t="str">
-        <v>17,95</v>
+        <v>17,41</v>
       </c>
     </row>
     <row r="15">
@@ -818,22 +818,22 @@
         <v>Сегодня в 22:00</v>
       </c>
       <c r="F15" t="str">
-        <v>1,44</v>
+        <v>1,48</v>
       </c>
       <c r="G15" t="str">
-        <v>4,7</v>
+        <v>4,5</v>
       </c>
       <c r="H15" t="str">
-        <v>7,2</v>
+        <v>6,6</v>
       </c>
       <c r="I15" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J15" t="str">
         <v>01-02-2025 22:00</v>
       </c>
       <c r="K15" t="str">
-        <v>20,95</v>
+        <v>20,41</v>
       </c>
     </row>
     <row r="16">
@@ -850,22 +850,22 @@
         <v>Завтра в 00:45</v>
       </c>
       <c r="F16" t="str">
-        <v>1,92</v>
+        <v>1,95</v>
       </c>
       <c r="G16" t="str">
-        <v>3,55</v>
+        <v>3,5</v>
       </c>
       <c r="H16" t="str">
-        <v>4,1</v>
+        <v>4,0</v>
       </c>
       <c r="I16" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J16" t="str">
         <v>02-02-2025 00:45</v>
       </c>
       <c r="K16" t="str">
-        <v>23,70</v>
+        <v>23,16</v>
       </c>
     </row>
     <row r="17">
@@ -891,13 +891,13 @@
         <v>3,15</v>
       </c>
       <c r="I17" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J17" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K17" t="str">
-        <v>18,45</v>
+        <v>17,91</v>
       </c>
     </row>
     <row r="18">
@@ -914,22 +914,22 @@
         <v>Сегодня в 19:30</v>
       </c>
       <c r="F18" t="str">
-        <v>2,8</v>
+        <v>2,85</v>
       </c>
       <c r="G18" t="str">
         <v>3,45</v>
       </c>
       <c r="H18" t="str">
-        <v>2,5</v>
+        <v>2,48</v>
       </c>
       <c r="I18" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J18" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K18" t="str">
-        <v>18,45</v>
+        <v>17,91</v>
       </c>
     </row>
     <row r="19">
@@ -949,19 +949,19 @@
         <v>1,05</v>
       </c>
       <c r="G19" t="str">
-        <v>17,0</v>
+        <v>16,0</v>
       </c>
       <c r="H19" t="str">
         <v>35,0</v>
       </c>
       <c r="I19" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J19" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K19" t="str">
-        <v>18,45</v>
+        <v>17,91</v>
       </c>
     </row>
     <row r="20">
@@ -987,13 +987,13 @@
         <v>1,75</v>
       </c>
       <c r="I20" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J20" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K20" t="str">
-        <v>18,45</v>
+        <v>17,91</v>
       </c>
     </row>
     <row r="21">
@@ -1019,13 +1019,13 @@
         <v>4,8</v>
       </c>
       <c r="I21" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J21" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K21" t="str">
-        <v>18,45</v>
+        <v>17,91</v>
       </c>
     </row>
     <row r="22">
@@ -1048,16 +1048,16 @@
         <v>3,55</v>
       </c>
       <c r="H22" t="str">
-        <v>2,27</v>
+        <v>2,28</v>
       </c>
       <c r="I22" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J22" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K22" t="str">
-        <v>21,45</v>
+        <v>20,91</v>
       </c>
     </row>
     <row r="23">
@@ -1074,22 +1074,22 @@
         <v>Сегодня в 21:00</v>
       </c>
       <c r="F23" t="str">
-        <v>6,0</v>
+        <v>6,4</v>
       </c>
       <c r="G23" t="str">
-        <v>4,9</v>
+        <v>5,0</v>
       </c>
       <c r="H23" t="str">
-        <v>1,48</v>
+        <v>1,45</v>
       </c>
       <c r="I23" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J23" t="str">
         <v>01-02-2025 21:00</v>
       </c>
       <c r="K23" t="str">
-        <v>19,95</v>
+        <v>19,41</v>
       </c>
     </row>
     <row r="24">
@@ -1115,18 +1115,50 @@
         <v>7,8</v>
       </c>
       <c r="I24" t="str">
-        <v>01-02-2025 01:03</v>
+        <v>01-02-2025 01:35</v>
       </c>
       <c r="J24" t="str">
         <v>01-02-2025 23:00</v>
       </c>
       <c r="K24" t="str">
-        <v>21,95</v>
+        <v>21,41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="str">
+        <v>Франция. Лига 1</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Лилль</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Сент-Этьен</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Завтра в 01:05</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1,43</v>
+      </c>
+      <c r="G25" t="str">
+        <v>4,8</v>
+      </c>
+      <c r="H25" t="str">
+        <v>7,2</v>
+      </c>
+      <c r="I25" t="str">
+        <v>01-02-2025 01:35</v>
+      </c>
+      <c r="J25" t="str">
+        <v>02-02-2025 01:05</v>
+      </c>
+      <c r="K25" t="str">
+        <v>23,49</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L24"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,19 +422,31 @@
         <v>3,4</v>
       </c>
       <c r="H3" t="str">
-        <v>2,75</v>
+        <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>15,91</v>
+        <v>15,58</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
+      </c>
+      <c r="M3" t="str">
+        <v>https://betboom.ru/sport/football/142/128/1320448</v>
+      </c>
+      <c r="N3" t="str">
+        <v>https://betboom.ru/sport/football/141/194/1318546</v>
+      </c>
+      <c r="O3" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319344</v>
+      </c>
+      <c r="P3" t="str">
+        <v>https://betboom.ru/sport/football/145/260/1320344</v>
       </c>
     </row>
     <row r="4">
@@ -460,16 +472,28 @@
         <v>3,6</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>18,41</v>
+        <v>18,08</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
+      </c>
+      <c r="M4" t="str">
+        <v>https://betboom.ru/sport/football/142/128/1320444</v>
+      </c>
+      <c r="N4" t="str">
+        <v>https://betboom.ru/sport/football/141/194/1318549</v>
+      </c>
+      <c r="O4" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319345</v>
+      </c>
+      <c r="P4" t="str">
+        <v>https://betboom.ru/sport/football/145/260/1320357</v>
       </c>
     </row>
     <row r="5">
@@ -495,16 +519,28 @@
         <v>4,3</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>18,41</v>
+        <v>18,08</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
+      </c>
+      <c r="M5" t="str">
+        <v>https://betboom.ru/sport/football/142/128/1320446</v>
+      </c>
+      <c r="N5" t="str">
+        <v>https://betboom.ru/sport/football/141/194/1318559</v>
+      </c>
+      <c r="O5" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319346</v>
+      </c>
+      <c r="P5" t="str">
+        <v>https://betboom.ru/sport/football/145/260/1320348</v>
       </c>
     </row>
     <row r="6">
@@ -524,22 +560,31 @@
         <v>1,73</v>
       </c>
       <c r="G6" t="str">
-        <v>4,1</v>
+        <v>4,0</v>
       </c>
       <c r="H6" t="str">
-        <v>4,5</v>
+        <v>4,6</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>18,41</v>
+        <v>18,08</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
+      </c>
+      <c r="M6" t="str">
+        <v>https://betboom.ru/sport/football/142/128/1320421</v>
+      </c>
+      <c r="N6" t="str">
+        <v>https://betboom.ru/sport/football/141/194/1318557</v>
+      </c>
+      <c r="O6" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319348</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +610,19 @@
         <v>1,71</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>18,41</v>
+        <v>18,08</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
+      </c>
+      <c r="M7" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319350</v>
       </c>
     </row>
     <row r="8">
@@ -600,16 +648,19 @@
         <v>2,22</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>20,91</v>
+        <v>20,58</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
+      </c>
+      <c r="M8" t="str">
+        <v>https://betboom.ru/sport/football/131/177/1319349</v>
       </c>
     </row>
     <row r="9">
@@ -635,13 +686,13 @@
         <v>3,2</v>
       </c>
       <c r="I9" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J9" t="str">
         <v>01-02-2025 18:00</v>
       </c>
       <c r="K9" t="str">
-        <v>16,41</v>
+        <v>16,08</v>
       </c>
     </row>
     <row r="10">
@@ -667,13 +718,13 @@
         <v>12,0</v>
       </c>
       <c r="I10" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J10" t="str">
         <v>01-02-2025 20:15</v>
       </c>
       <c r="K10" t="str">
-        <v>18,66</v>
+        <v>18,33</v>
       </c>
     </row>
     <row r="11">
@@ -699,13 +750,13 @@
         <v>7,8</v>
       </c>
       <c r="I11" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J11" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K11" t="str">
-        <v>20,91</v>
+        <v>20,58</v>
       </c>
     </row>
     <row r="12">
@@ -731,13 +782,13 @@
         <v>1,35</v>
       </c>
       <c r="I12" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J12" t="str">
         <v>02-02-2025 01:00</v>
       </c>
       <c r="K12" t="str">
-        <v>23,41</v>
+        <v>23,08</v>
       </c>
     </row>
     <row r="13">
@@ -763,13 +814,13 @@
         <v>4,4</v>
       </c>
       <c r="I13" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J13" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K13" t="str">
-        <v>17,41</v>
+        <v>17,08</v>
       </c>
     </row>
     <row r="14">
@@ -795,13 +846,13 @@
         <v>3,2</v>
       </c>
       <c r="I14" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J14" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K14" t="str">
-        <v>17,41</v>
+        <v>17,08</v>
       </c>
     </row>
     <row r="15">
@@ -827,13 +878,13 @@
         <v>6,6</v>
       </c>
       <c r="I15" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J15" t="str">
         <v>01-02-2025 22:00</v>
       </c>
       <c r="K15" t="str">
-        <v>20,41</v>
+        <v>20,08</v>
       </c>
     </row>
     <row r="16">
@@ -859,13 +910,13 @@
         <v>4,0</v>
       </c>
       <c r="I16" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J16" t="str">
         <v>02-02-2025 00:45</v>
       </c>
       <c r="K16" t="str">
-        <v>23,16</v>
+        <v>22,83</v>
       </c>
     </row>
     <row r="17">
@@ -891,13 +942,13 @@
         <v>3,15</v>
       </c>
       <c r="I17" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J17" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K17" t="str">
-        <v>17,91</v>
+        <v>17,58</v>
       </c>
     </row>
     <row r="18">
@@ -923,13 +974,13 @@
         <v>2,48</v>
       </c>
       <c r="I18" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J18" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K18" t="str">
-        <v>17,91</v>
+        <v>17,58</v>
       </c>
     </row>
     <row r="19">
@@ -955,13 +1006,13 @@
         <v>35,0</v>
       </c>
       <c r="I19" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J19" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K19" t="str">
-        <v>17,91</v>
+        <v>17,58</v>
       </c>
     </row>
     <row r="20">
@@ -987,13 +1038,13 @@
         <v>1,75</v>
       </c>
       <c r="I20" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J20" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K20" t="str">
-        <v>17,91</v>
+        <v>17,58</v>
       </c>
     </row>
     <row r="21">
@@ -1019,13 +1070,13 @@
         <v>4,8</v>
       </c>
       <c r="I21" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J21" t="str">
         <v>01-02-2025 19:30</v>
       </c>
       <c r="K21" t="str">
-        <v>17,91</v>
+        <v>17,58</v>
       </c>
     </row>
     <row r="22">
@@ -1051,13 +1102,13 @@
         <v>2,28</v>
       </c>
       <c r="I22" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J22" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K22" t="str">
-        <v>20,91</v>
+        <v>20,58</v>
       </c>
     </row>
     <row r="23">
@@ -1083,13 +1134,13 @@
         <v>1,45</v>
       </c>
       <c r="I23" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J23" t="str">
         <v>01-02-2025 21:00</v>
       </c>
       <c r="K23" t="str">
-        <v>19,41</v>
+        <v>19,08</v>
       </c>
     </row>
     <row r="24">
@@ -1115,13 +1166,13 @@
         <v>7,8</v>
       </c>
       <c r="I24" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J24" t="str">
         <v>01-02-2025 23:00</v>
       </c>
       <c r="K24" t="str">
-        <v>21,41</v>
+        <v>21,08</v>
       </c>
     </row>
     <row r="25">
@@ -1138,27 +1189,27 @@
         <v>Завтра в 01:05</v>
       </c>
       <c r="F25" t="str">
-        <v>1,43</v>
+        <v>1,42</v>
       </c>
       <c r="G25" t="str">
         <v>4,8</v>
       </c>
       <c r="H25" t="str">
-        <v>7,2</v>
+        <v>7,4</v>
       </c>
       <c r="I25" t="str">
-        <v>01-02-2025 01:35</v>
+        <v>01-02-2025 01:55</v>
       </c>
       <c r="J25" t="str">
         <v>02-02-2025 01:05</v>
       </c>
       <c r="K25" t="str">
-        <v>23,49</v>
+        <v>23,17</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L25"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -425,13 +425,13 @@
         <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>2,46</v>
+        <v>2,10</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -460,13 +460,13 @@
         <v>3,65</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>4,96</v>
+        <v>4,60</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -495,13 +495,13 @@
         <v>4,2</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>4,96</v>
+        <v>4,60</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -521,22 +521,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F6" t="str">
-        <v>1,72</v>
+        <v>1,73</v>
       </c>
       <c r="G6" t="str">
-        <v>4,0</v>
+        <v>3,95</v>
       </c>
       <c r="H6" t="str">
-        <v>4,7</v>
+        <v>4,6</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>4,96</v>
+        <v>4,60</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -562,16 +562,16 @@
         <v>4,4</v>
       </c>
       <c r="H7" t="str">
-        <v>1,73</v>
+        <v>1,74</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>4,96</v>
+        <v>4,60</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -597,16 +597,16 @@
         <v>3,5</v>
       </c>
       <c r="H8" t="str">
-        <v>2,22</v>
+        <v>2,2</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>7,46</v>
+        <v>7,10</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
@@ -635,13 +635,13 @@
         <v>3,4</v>
       </c>
       <c r="I9" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J9" t="str">
         <v>01-02-2025 18:00</v>
       </c>
       <c r="K9" t="str">
-        <v>2,96</v>
+        <v>2,60</v>
       </c>
       <c r="L9" t="str">
         <v>https://betboom.ru/sport/football/142/128/1320448</v>
@@ -670,13 +670,13 @@
         <v>12,0</v>
       </c>
       <c r="I10" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J10" t="str">
         <v>01-02-2025 20:15</v>
       </c>
       <c r="K10" t="str">
-        <v>5,21</v>
+        <v>4,85</v>
       </c>
       <c r="L10" t="str">
         <v>https://betboom.ru/sport/football/142/128/1320444</v>
@@ -702,16 +702,16 @@
         <v>4,3</v>
       </c>
       <c r="H11" t="str">
-        <v>7,4</v>
+        <v>7,6</v>
       </c>
       <c r="I11" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J11" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K11" t="str">
-        <v>7,46</v>
+        <v>7,10</v>
       </c>
       <c r="L11" t="str">
         <v>https://betboom.ru/sport/football/142/128/1320446</v>
@@ -731,22 +731,22 @@
         <v>Завтра в 01:00</v>
       </c>
       <c r="F12" t="str">
-        <v>8,0</v>
+        <v>7,8</v>
       </c>
       <c r="G12" t="str">
         <v>5,4</v>
       </c>
       <c r="H12" t="str">
-        <v>1,36</v>
+        <v>1,38</v>
       </c>
       <c r="I12" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J12" t="str">
         <v>02-02-2025 01:00</v>
       </c>
       <c r="K12" t="str">
-        <v>9,96</v>
+        <v>9,60</v>
       </c>
       <c r="L12" t="str">
         <v>https://betboom.ru/sport/football/142/128/1320421</v>
@@ -769,19 +769,19 @@
         <v>1,82</v>
       </c>
       <c r="G13" t="str">
-        <v>3,55</v>
+        <v>3,5</v>
       </c>
       <c r="H13" t="str">
-        <v>4,7</v>
+        <v>4,8</v>
       </c>
       <c r="I13" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J13" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K13" t="str">
-        <v>3,96</v>
+        <v>3,60</v>
       </c>
       <c r="L13" t="str">
         <v>https://betboom.ru/sport/football/141/194/1318546</v>
@@ -801,22 +801,22 @@
         <v>Сегодня в 19:00</v>
       </c>
       <c r="F14" t="str">
-        <v>2,39</v>
+        <v>2,42</v>
       </c>
       <c r="G14" t="str">
-        <v>3,15</v>
+        <v>3,1</v>
       </c>
       <c r="H14" t="str">
         <v>3,25</v>
       </c>
       <c r="I14" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J14" t="str">
         <v>01-02-2025 19:00</v>
       </c>
       <c r="K14" t="str">
-        <v>3,96</v>
+        <v>3,60</v>
       </c>
       <c r="L14" t="str">
         <v>https://betboom.ru/sport/football/141/194/1318549</v>
@@ -845,13 +845,13 @@
         <v>6,2</v>
       </c>
       <c r="I15" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J15" t="str">
         <v>01-02-2025 22:00</v>
       </c>
       <c r="K15" t="str">
-        <v>6,96</v>
+        <v>6,60</v>
       </c>
       <c r="L15" t="str">
         <v>https://betboom.ru/sport/football/141/194/1318559</v>
@@ -880,13 +880,13 @@
         <v>4,4</v>
       </c>
       <c r="I16" t="str">
-        <v>01-02-2025 15:02</v>
+        <v>01-02-2025 15:23</v>
       </c>
       <c r="J16" t="str">
         <v>02-02-2025 00:45</v>
       </c>
       <c r="K16" t="str">
-        <v>9,71</v>
+        <v>9,35</v>
       </c>
       <c r="L16" t="str">
         <v>https://betboom.ru/sport/football/141/194/1318557</v>

--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +416,7 @@
         <v>Сегодня в 17:30</v>
       </c>
       <c r="F3" t="str">
-        <v>2,5</v>
+        <v>2,55</v>
       </c>
       <c r="G3" t="str">
         <v>3,45</v>
@@ -425,13 +425,13 @@
         <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>2,10</v>
+        <v>1,62</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -451,22 +451,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F4" t="str">
-        <v>2,02</v>
+        <v>2,04</v>
       </c>
       <c r="G4" t="str">
-        <v>3,65</v>
+        <v>3,55</v>
       </c>
       <c r="H4" t="str">
-        <v>3,65</v>
+        <v>3,7</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>4,60</v>
+        <v>4,12</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -495,13 +495,13 @@
         <v>4,2</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>4,60</v>
+        <v>4,12</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -521,22 +521,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F6" t="str">
-        <v>1,73</v>
+        <v>1,72</v>
       </c>
       <c r="G6" t="str">
-        <v>3,95</v>
+        <v>4,0</v>
       </c>
       <c r="H6" t="str">
-        <v>4,6</v>
+        <v>4,7</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>4,60</v>
+        <v>4,12</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -565,13 +565,13 @@
         <v>1,74</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>4,60</v>
+        <v>4,12</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -600,301 +600,21 @@
         <v>2,2</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 15:23</v>
+        <v>01-02-2025 15:52</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>7,10</v>
+        <v>6,62</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>Испания. Ла Лига</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Хетафе</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Севилья</v>
-      </c>
-      <c r="E9" t="str">
-        <v>Сегодня в 18:00</v>
-      </c>
-      <c r="F9" t="str">
-        <v>2,45</v>
-      </c>
-      <c r="G9" t="str">
-        <v>2,9</v>
-      </c>
-      <c r="H9" t="str">
-        <v>3,4</v>
-      </c>
-      <c r="I9" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J9" t="str">
-        <v>01-02-2025 18:00</v>
-      </c>
-      <c r="K9" t="str">
-        <v>2,60</v>
-      </c>
-      <c r="L9" t="str">
-        <v>https://betboom.ru/sport/football/142/128/1320448</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>Испания. Ла Лига</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Вильярреал</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Вальядолид</v>
-      </c>
-      <c r="E10" t="str">
-        <v>Сегодня в 20:15</v>
-      </c>
-      <c r="F10" t="str">
-        <v>1,23</v>
-      </c>
-      <c r="G10" t="str">
-        <v>7,0</v>
-      </c>
-      <c r="H10" t="str">
-        <v>12,0</v>
-      </c>
-      <c r="I10" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J10" t="str">
-        <v>01-02-2025 20:15</v>
-      </c>
-      <c r="K10" t="str">
-        <v>4,85</v>
-      </c>
-      <c r="L10" t="str">
-        <v>https://betboom.ru/sport/football/142/128/1320444</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="str">
-        <v>Испания. Ла Лига</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Атлетико М</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Мальорка</v>
-      </c>
-      <c r="E11" t="str">
-        <v>Сегодня в 22:30</v>
-      </c>
-      <c r="F11" t="str">
-        <v>1,47</v>
-      </c>
-      <c r="G11" t="str">
-        <v>4,3</v>
-      </c>
-      <c r="H11" t="str">
-        <v>7,6</v>
-      </c>
-      <c r="I11" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J11" t="str">
-        <v>01-02-2025 22:30</v>
-      </c>
-      <c r="K11" t="str">
-        <v>7,10</v>
-      </c>
-      <c r="L11" t="str">
-        <v>https://betboom.ru/sport/football/142/128/1320446</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>Испания. Ла Лига</v>
-      </c>
-      <c r="C12" t="str">
-        <v>Эспаньол</v>
-      </c>
-      <c r="D12" t="str">
-        <v>Реал М</v>
-      </c>
-      <c r="E12" t="str">
-        <v>Завтра в 01:00</v>
-      </c>
-      <c r="F12" t="str">
-        <v>7,8</v>
-      </c>
-      <c r="G12" t="str">
-        <v>5,4</v>
-      </c>
-      <c r="H12" t="str">
-        <v>1,38</v>
-      </c>
-      <c r="I12" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J12" t="str">
-        <v>02-02-2025 01:00</v>
-      </c>
-      <c r="K12" t="str">
-        <v>9,60</v>
-      </c>
-      <c r="L12" t="str">
-        <v>https://betboom.ru/sport/football/142/128/1320421</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>Италия. Серия A</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Удинезе</v>
-      </c>
-      <c r="D13" t="str">
-        <v>Венеция</v>
-      </c>
-      <c r="E13" t="str">
-        <v>Сегодня в 19:00</v>
-      </c>
-      <c r="F13" t="str">
-        <v>1,82</v>
-      </c>
-      <c r="G13" t="str">
-        <v>3,5</v>
-      </c>
-      <c r="H13" t="str">
-        <v>4,8</v>
-      </c>
-      <c r="I13" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J13" t="str">
-        <v>01-02-2025 19:00</v>
-      </c>
-      <c r="K13" t="str">
-        <v>3,60</v>
-      </c>
-      <c r="L13" t="str">
-        <v>https://betboom.ru/sport/football/141/194/1318546</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>Италия. Серия A</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Монца</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Верона</v>
-      </c>
-      <c r="E14" t="str">
-        <v>Сегодня в 19:00</v>
-      </c>
-      <c r="F14" t="str">
-        <v>2,42</v>
-      </c>
-      <c r="G14" t="str">
-        <v>3,1</v>
-      </c>
-      <c r="H14" t="str">
-        <v>3,25</v>
-      </c>
-      <c r="I14" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J14" t="str">
-        <v>01-02-2025 19:00</v>
-      </c>
-      <c r="K14" t="str">
-        <v>3,60</v>
-      </c>
-      <c r="L14" t="str">
-        <v>https://betboom.ru/sport/football/141/194/1318549</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="str">
-        <v>Италия. Серия A</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Аталанта</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Торино</v>
-      </c>
-      <c r="E15" t="str">
-        <v>Сегодня в 22:00</v>
-      </c>
-      <c r="F15" t="str">
-        <v>1,54</v>
-      </c>
-      <c r="G15" t="str">
-        <v>4,3</v>
-      </c>
-      <c r="H15" t="str">
-        <v>6,2</v>
-      </c>
-      <c r="I15" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J15" t="str">
-        <v>01-02-2025 22:00</v>
-      </c>
-      <c r="K15" t="str">
-        <v>6,60</v>
-      </c>
-      <c r="L15" t="str">
-        <v>https://betboom.ru/sport/football/141/194/1318559</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="str">
-        <v>Италия. Серия A</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Болонья</v>
-      </c>
-      <c r="D16" t="str">
-        <v>Комо</v>
-      </c>
-      <c r="E16" t="str">
-        <v>Завтра в 00:45</v>
-      </c>
-      <c r="F16" t="str">
-        <v>1,87</v>
-      </c>
-      <c r="G16" t="str">
-        <v>3,5</v>
-      </c>
-      <c r="H16" t="str">
-        <v>4,4</v>
-      </c>
-      <c r="I16" t="str">
-        <v>01-02-2025 15:23</v>
-      </c>
-      <c r="J16" t="str">
-        <v>02-02-2025 00:45</v>
-      </c>
-      <c r="K16" t="str">
-        <v>9,35</v>
-      </c>
-      <c r="L16" t="str">
-        <v>https://betboom.ru/sport/football/141/194/1318557</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -425,13 +425,13 @@
         <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>1,62</v>
+        <v>1,56</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -454,19 +454,19 @@
         <v>2,04</v>
       </c>
       <c r="G4" t="str">
-        <v>3,55</v>
+        <v>3,5</v>
       </c>
       <c r="H4" t="str">
         <v>3,7</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>4,12</v>
+        <v>4,06</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -486,22 +486,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F5" t="str">
-        <v>1,93</v>
+        <v>1,92</v>
       </c>
       <c r="G5" t="str">
         <v>3,45</v>
       </c>
       <c r="H5" t="str">
-        <v>4,2</v>
+        <v>4,3</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>4,12</v>
+        <v>4,06</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -530,13 +530,13 @@
         <v>4,7</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>4,12</v>
+        <v>4,06</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -565,13 +565,13 @@
         <v>1,74</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>4,12</v>
+        <v>4,06</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -600,13 +600,13 @@
         <v>2,2</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 15:52</v>
+        <v>01-02-2025 15:56</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>6,62</v>
+        <v>6,56</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>

--- a/resultScan.xlsx
+++ b/resultScan.xlsx
@@ -425,13 +425,13 @@
         <v>2,8</v>
       </c>
       <c r="I3" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J3" t="str">
         <v>01-02-2025 17:30</v>
       </c>
       <c r="K3" t="str">
-        <v>1,56</v>
+        <v>1,19</v>
       </c>
       <c r="L3" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313272</v>
@@ -451,7 +451,7 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F4" t="str">
-        <v>2,04</v>
+        <v>2,03</v>
       </c>
       <c r="G4" t="str">
         <v>3,5</v>
@@ -460,13 +460,13 @@
         <v>3,7</v>
       </c>
       <c r="I4" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J4" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K4" t="str">
-        <v>4,06</v>
+        <v>3,69</v>
       </c>
       <c r="L4" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313269</v>
@@ -486,22 +486,22 @@
         <v>Сегодня в 20:00</v>
       </c>
       <c r="F5" t="str">
-        <v>1,92</v>
+        <v>1,94</v>
       </c>
       <c r="G5" t="str">
         <v>3,45</v>
       </c>
       <c r="H5" t="str">
-        <v>4,3</v>
+        <v>4,2</v>
       </c>
       <c r="I5" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J5" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K5" t="str">
-        <v>4,06</v>
+        <v>3,69</v>
       </c>
       <c r="L5" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313278</v>
@@ -530,13 +530,13 @@
         <v>4,7</v>
       </c>
       <c r="I6" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J6" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K6" t="str">
-        <v>4,06</v>
+        <v>3,69</v>
       </c>
       <c r="L6" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313283</v>
@@ -559,19 +559,19 @@
         <v>4,2</v>
       </c>
       <c r="G7" t="str">
-        <v>4,4</v>
+        <v>4,3</v>
       </c>
       <c r="H7" t="str">
         <v>1,74</v>
       </c>
       <c r="I7" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J7" t="str">
         <v>01-02-2025 20:00</v>
       </c>
       <c r="K7" t="str">
-        <v>4,06</v>
+        <v>3,69</v>
       </c>
       <c r="L7" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313284</v>
@@ -600,13 +600,13 @@
         <v>2,2</v>
       </c>
       <c r="I8" t="str">
-        <v>01-02-2025 15:56</v>
+        <v>01-02-2025 16:18</v>
       </c>
       <c r="J8" t="str">
         <v>01-02-2025 22:30</v>
       </c>
       <c r="K8" t="str">
-        <v>6,56</v>
+        <v>6,19</v>
       </c>
       <c r="L8" t="str">
         <v>https://betboom.ru/sport/football/128/216/1313270</v>
